--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Ckap4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="H2">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="I2">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="J2">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4746118189651</v>
+        <v>10.475158</v>
       </c>
       <c r="N2">
-        <v>10.4746118189651</v>
+        <v>20.950316</v>
       </c>
       <c r="O2">
-        <v>0.07029867645192654</v>
+        <v>0.06723868979225338</v>
       </c>
       <c r="P2">
-        <v>0.07029867645192654</v>
+        <v>0.04730430172509074</v>
       </c>
       <c r="Q2">
-        <v>26.44607898582316</v>
+        <v>26.910764703264</v>
       </c>
       <c r="R2">
-        <v>26.44607898582316</v>
+        <v>107.643058813056</v>
       </c>
       <c r="S2">
-        <v>0.01961789957892673</v>
+        <v>0.01732901311314166</v>
       </c>
       <c r="T2">
-        <v>0.01961789957892673</v>
+        <v>0.01009188648204536</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="H3">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="I3">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="J3">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>89.2013053920292</v>
+        <v>94.77040833333335</v>
       </c>
       <c r="N3">
-        <v>89.2013053920292</v>
+        <v>284.311225</v>
       </c>
       <c r="O3">
-        <v>0.5986602477707194</v>
+        <v>0.6083190427686328</v>
       </c>
       <c r="P3">
-        <v>0.5986602477707194</v>
+        <v>0.6419542297705754</v>
       </c>
       <c r="Q3">
-        <v>225.213574384202</v>
+        <v>243.4659371716</v>
       </c>
       <c r="R3">
-        <v>225.213574384202</v>
+        <v>1460.7956230296</v>
       </c>
       <c r="S3">
-        <v>0.1670651172315138</v>
+        <v>0.1567783176870577</v>
       </c>
       <c r="T3">
-        <v>0.1670651172315138</v>
+        <v>0.1369543355943298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="H4">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="I4">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="J4">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.1802121654039</v>
+        <v>16.538844</v>
       </c>
       <c r="N4">
-        <v>16.1802121654039</v>
+        <v>49.61653199999999</v>
       </c>
       <c r="O4">
-        <v>0.1085908976483327</v>
+        <v>0.1061607091022847</v>
       </c>
       <c r="P4">
-        <v>0.1085908976483327</v>
+        <v>0.1120305488604859</v>
       </c>
       <c r="Q4">
-        <v>40.85145839570841</v>
+        <v>42.488422546752</v>
       </c>
       <c r="R4">
-        <v>40.85145839570841</v>
+        <v>254.930535280512</v>
       </c>
       <c r="S4">
-        <v>0.03030391797927113</v>
+        <v>0.0273601452648451</v>
       </c>
       <c r="T4">
-        <v>0.03030391797927113</v>
+        <v>0.02390056591875611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="H5">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="I5">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="J5">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9149383565421</v>
+        <v>11.41751</v>
       </c>
       <c r="N5">
-        <v>10.9149383565421</v>
+        <v>34.25253</v>
       </c>
       <c r="O5">
-        <v>0.07325385735345431</v>
+        <v>0.07328752588647836</v>
       </c>
       <c r="P5">
-        <v>0.07325385735345431</v>
+        <v>0.07733974103148239</v>
       </c>
       <c r="Q5">
-        <v>27.55780614035421</v>
+        <v>29.33167453008</v>
       </c>
       <c r="R5">
-        <v>27.55780614035421</v>
+        <v>175.99004718048</v>
       </c>
       <c r="S5">
-        <v>0.02044258711345491</v>
+        <v>0.01888794235938265</v>
       </c>
       <c r="T5">
-        <v>0.02044258711345491</v>
+        <v>0.01649963869198217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="H6">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="I6">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="J6">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.26167458843611</v>
+        <v>8.575923000000001</v>
       </c>
       <c r="N6">
-        <v>8.26167458843611</v>
+        <v>25.727769</v>
       </c>
       <c r="O6">
-        <v>0.05544690332027555</v>
+        <v>0.0550477449866867</v>
       </c>
       <c r="P6">
-        <v>0.05544690332027555</v>
+        <v>0.05809144585167288</v>
       </c>
       <c r="Q6">
-        <v>20.8589017423403</v>
+        <v>22.03161479438401</v>
       </c>
       <c r="R6">
-        <v>20.8589017423403</v>
+        <v>132.189688766304</v>
       </c>
       <c r="S6">
-        <v>0.01547328962933576</v>
+        <v>0.0141871160439101</v>
       </c>
       <c r="T6">
-        <v>0.01547328962933576</v>
+        <v>0.01239321278897586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52477890760023</v>
+        <v>2.569008</v>
       </c>
       <c r="H7">
-        <v>2.52477890760023</v>
+        <v>5.138016</v>
       </c>
       <c r="I7">
-        <v>0.2790649919610129</v>
+        <v>0.2577238367773512</v>
       </c>
       <c r="J7">
-        <v>0.2790649919610129</v>
+        <v>0.2133397199412101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9688085986913</v>
+        <v>14.012789</v>
       </c>
       <c r="N7">
-        <v>13.9688085986913</v>
+        <v>28.025578</v>
       </c>
       <c r="O7">
-        <v>0.09374941745529149</v>
+        <v>0.08994628746366408</v>
       </c>
       <c r="P7">
-        <v>0.09374941745529149</v>
+        <v>0.06327973276069274</v>
       </c>
       <c r="Q7">
-        <v>35.26815331428052</v>
+        <v>35.99896704331201</v>
       </c>
       <c r="R7">
-        <v>35.26815331428052</v>
+        <v>143.995868173248</v>
       </c>
       <c r="S7">
-        <v>0.02616218042851056</v>
+        <v>0.02318130230901407</v>
       </c>
       <c r="T7">
-        <v>0.02616218042851056</v>
+        <v>0.01350008046512081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="H8">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="I8">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="J8">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.4746118189651</v>
+        <v>10.475158</v>
       </c>
       <c r="N8">
-        <v>10.4746118189651</v>
+        <v>20.950316</v>
       </c>
       <c r="O8">
-        <v>0.07029867645192654</v>
+        <v>0.06723868979225338</v>
       </c>
       <c r="P8">
-        <v>0.07029867645192654</v>
+        <v>0.04730430172509074</v>
       </c>
       <c r="Q8">
-        <v>20.1086216432982</v>
+        <v>21.40578983671733</v>
       </c>
       <c r="R8">
-        <v>20.1086216432982</v>
+        <v>128.434739020304</v>
       </c>
       <c r="S8">
-        <v>0.01491672622925798</v>
+        <v>0.01378412010464488</v>
       </c>
       <c r="T8">
-        <v>0.01491672622925798</v>
+        <v>0.01204117405094419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="H9">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="I9">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="J9">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>89.2013053920292</v>
+        <v>94.77040833333335</v>
       </c>
       <c r="N9">
-        <v>89.2013053920292</v>
+        <v>284.311225</v>
       </c>
       <c r="O9">
-        <v>0.5986602477707194</v>
+        <v>0.6083190427686328</v>
       </c>
       <c r="P9">
-        <v>0.5986602477707194</v>
+        <v>0.6419542297705754</v>
       </c>
       <c r="Q9">
-        <v>171.244083429321</v>
+        <v>193.6615603815445</v>
       </c>
       <c r="R9">
-        <v>171.244083429321</v>
+        <v>1742.9540434339</v>
       </c>
       <c r="S9">
-        <v>0.1270301443931501</v>
+        <v>0.1247071109412292</v>
       </c>
       <c r="T9">
-        <v>0.1270301443931501</v>
+        <v>0.1634076042033044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="H10">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="I10">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="J10">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.1802121654039</v>
+        <v>16.538844</v>
       </c>
       <c r="N10">
-        <v>16.1802121654039</v>
+        <v>49.61653199999999</v>
       </c>
       <c r="O10">
-        <v>0.1085908976483327</v>
+        <v>0.1061607091022847</v>
       </c>
       <c r="P10">
-        <v>0.1085908976483327</v>
+        <v>0.1120305488604859</v>
       </c>
       <c r="Q10">
-        <v>31.06194006667674</v>
+        <v>33.79681898891199</v>
       </c>
       <c r="R10">
-        <v>31.06194006667674</v>
+        <v>304.1713709002079</v>
       </c>
       <c r="S10">
-        <v>0.02304197992002396</v>
+        <v>0.02176324329313079</v>
       </c>
       <c r="T10">
-        <v>0.02304197992002396</v>
+        <v>0.02851705423518395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="H11">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="I11">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="J11">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9149383565421</v>
+        <v>11.41751</v>
       </c>
       <c r="N11">
-        <v>10.9149383565421</v>
+        <v>34.25253</v>
       </c>
       <c r="O11">
-        <v>0.07325385735345431</v>
+        <v>0.07328752588647836</v>
       </c>
       <c r="P11">
-        <v>0.07325385735345431</v>
+        <v>0.07733974103148239</v>
       </c>
       <c r="Q11">
-        <v>20.95393790863301</v>
+        <v>23.33146855814667</v>
       </c>
       <c r="R11">
-        <v>20.95393790863301</v>
+        <v>209.98321702332</v>
       </c>
       <c r="S11">
-        <v>0.0155437881696939</v>
+        <v>0.01502414847928632</v>
       </c>
       <c r="T11">
-        <v>0.0155437881696939</v>
+        <v>0.01968660880414345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="H12">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="I12">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="J12">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.26167458843611</v>
+        <v>8.575923000000001</v>
       </c>
       <c r="N12">
-        <v>8.26167458843611</v>
+        <v>25.727769</v>
       </c>
       <c r="O12">
-        <v>0.05544690332027555</v>
+        <v>0.0550477449866867</v>
       </c>
       <c r="P12">
-        <v>0.05544690332027555</v>
+        <v>0.05809144585167288</v>
       </c>
       <c r="Q12">
-        <v>15.86033843642016</v>
+        <v>17.524738566604</v>
       </c>
       <c r="R12">
-        <v>15.86033843642016</v>
+        <v>157.722647099436</v>
       </c>
       <c r="S12">
-        <v>0.01176531790970894</v>
+        <v>0.01128494220709477</v>
       </c>
       <c r="T12">
-        <v>0.01176531790970894</v>
+        <v>0.01478701058597333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.91974862561398</v>
+        <v>2.043481333333333</v>
       </c>
       <c r="H13">
-        <v>1.91974862561398</v>
+        <v>6.130444</v>
       </c>
       <c r="I13">
-        <v>0.212190712288285</v>
+        <v>0.2050028063787906</v>
       </c>
       <c r="J13">
-        <v>0.212190712288285</v>
+        <v>0.2545471259870097</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9688085986913</v>
+        <v>14.012789</v>
       </c>
       <c r="N13">
-        <v>13.9688085986913</v>
+        <v>28.025578</v>
       </c>
       <c r="O13">
-        <v>0.09374941745529149</v>
+        <v>0.08994628746366408</v>
       </c>
       <c r="P13">
-        <v>0.09374941745529149</v>
+        <v>0.06327973276069274</v>
       </c>
       <c r="Q13">
-        <v>26.81660110880237</v>
+        <v>28.63487274943867</v>
       </c>
       <c r="R13">
-        <v>26.81660110880237</v>
+        <v>171.809236496632</v>
       </c>
       <c r="S13">
-        <v>0.01989275566645008</v>
+        <v>0.01843924135340456</v>
       </c>
       <c r="T13">
-        <v>0.01989275566645008</v>
+        <v>0.01610767410746036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="H14">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="I14">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="J14">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4746118189651</v>
+        <v>10.475158</v>
       </c>
       <c r="N14">
-        <v>10.4746118189651</v>
+        <v>20.950316</v>
       </c>
       <c r="O14">
-        <v>0.07029867645192654</v>
+        <v>0.06723868979225338</v>
       </c>
       <c r="P14">
-        <v>0.07029867645192654</v>
+        <v>0.04730430172509074</v>
       </c>
       <c r="Q14">
-        <v>20.56269411732509</v>
+        <v>0.12633040548</v>
       </c>
       <c r="R14">
-        <v>20.56269411732509</v>
+        <v>0.75798243288</v>
       </c>
       <c r="S14">
-        <v>0.01525356059331587</v>
+        <v>8.134964863655093E-05</v>
       </c>
       <c r="T14">
-        <v>0.01525356059331587</v>
+        <v>7.106331566900552E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="H15">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="I15">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="J15">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>89.2013053920292</v>
+        <v>94.77040833333335</v>
       </c>
       <c r="N15">
-        <v>89.2013053920292</v>
+        <v>284.311225</v>
       </c>
       <c r="O15">
-        <v>0.5986602477707194</v>
+        <v>0.6083190427686328</v>
       </c>
       <c r="P15">
-        <v>0.5986602477707194</v>
+        <v>0.6419542297705754</v>
       </c>
       <c r="Q15">
-        <v>175.1109434262185</v>
+        <v>1.1429311245</v>
       </c>
       <c r="R15">
-        <v>175.1109434262185</v>
+        <v>10.2863801205</v>
       </c>
       <c r="S15">
-        <v>0.1298986101171454</v>
+        <v>0.000735983115391589</v>
       </c>
       <c r="T15">
-        <v>0.1298986101171454</v>
+        <v>0.0009643815554102695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="H16">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="I16">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="J16">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.1802121654039</v>
+        <v>16.538844</v>
       </c>
       <c r="N16">
-        <v>16.1802121654039</v>
+        <v>49.61653199999999</v>
       </c>
       <c r="O16">
-        <v>0.1085908976483327</v>
+        <v>0.1061607091022847</v>
       </c>
       <c r="P16">
-        <v>0.1085908976483327</v>
+        <v>0.1120305488604859</v>
       </c>
       <c r="Q16">
-        <v>31.76334925445424</v>
+        <v>0.19945845864</v>
       </c>
       <c r="R16">
-        <v>31.76334925445424</v>
+        <v>1.795126127759999</v>
       </c>
       <c r="S16">
-        <v>0.02356229051188644</v>
+        <v>0.0001284399861324028</v>
       </c>
       <c r="T16">
-        <v>0.02356229051188644</v>
+        <v>0.000168298906609204</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="H17">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="I17">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="J17">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.9149383565421</v>
+        <v>11.41751</v>
       </c>
       <c r="N17">
-        <v>10.9149383565421</v>
+        <v>34.25253</v>
       </c>
       <c r="O17">
-        <v>0.07325385735345431</v>
+        <v>0.07328752588647836</v>
       </c>
       <c r="P17">
-        <v>0.07325385735345431</v>
+        <v>0.07733974103148239</v>
       </c>
       <c r="Q17">
-        <v>21.42709845616113</v>
+        <v>0.1376951706</v>
       </c>
       <c r="R17">
-        <v>21.42709845616113</v>
+        <v>1.2392565354</v>
       </c>
       <c r="S17">
-        <v>0.01589478220972125</v>
+        <v>8.866791573017864E-05</v>
       </c>
       <c r="T17">
-        <v>0.01589478220972125</v>
+        <v>0.0001161843263773244</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="H18">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="I18">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="J18">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.26167458843611</v>
+        <v>8.575923000000001</v>
       </c>
       <c r="N18">
-        <v>8.26167458843611</v>
+        <v>25.727769</v>
       </c>
       <c r="O18">
-        <v>0.05544690332027555</v>
+        <v>0.0550477449866867</v>
       </c>
       <c r="P18">
-        <v>0.05544690332027555</v>
+        <v>0.05809144585167288</v>
       </c>
       <c r="Q18">
-        <v>16.21848049311997</v>
+        <v>0.10342563138</v>
       </c>
       <c r="R18">
-        <v>16.21848049311997</v>
+        <v>0.93083068242</v>
       </c>
       <c r="S18">
-        <v>0.01203099037128986</v>
+        <v>6.660026729755446E-05</v>
       </c>
       <c r="T18">
-        <v>0.01203099037128986</v>
+        <v>8.726840062490011E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.96309843960945</v>
+        <v>0.01206</v>
       </c>
       <c r="H19">
-        <v>1.96309843960945</v>
+        <v>0.03618</v>
       </c>
       <c r="I19">
-        <v>0.2169821874775544</v>
+        <v>0.001209863679496076</v>
       </c>
       <c r="J19">
-        <v>0.2169821874775544</v>
+        <v>0.001502259056311421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.9688085986913</v>
+        <v>14.012789</v>
       </c>
       <c r="N19">
-        <v>13.9688085986913</v>
+        <v>28.025578</v>
       </c>
       <c r="O19">
-        <v>0.09374941745529149</v>
+        <v>0.08994628746366408</v>
       </c>
       <c r="P19">
-        <v>0.09374941745529149</v>
+        <v>0.06327973276069274</v>
       </c>
       <c r="Q19">
-        <v>27.42214636329396</v>
+        <v>0.16899423534</v>
       </c>
       <c r="R19">
-        <v>27.42214636329396</v>
+        <v>1.01396541204</v>
       </c>
       <c r="S19">
-        <v>0.02034195367419557</v>
+        <v>0.0001088227463078004</v>
       </c>
       <c r="T19">
-        <v>0.02034195367419557</v>
+        <v>9.506255162071717E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="H20">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="I20">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="J20">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.4746118189651</v>
+        <v>10.475158</v>
       </c>
       <c r="N20">
-        <v>10.4746118189651</v>
+        <v>20.950316</v>
       </c>
       <c r="O20">
-        <v>0.07029867645192654</v>
+        <v>0.06723868979225338</v>
       </c>
       <c r="P20">
-        <v>0.07029867645192654</v>
+        <v>0.04730430172509074</v>
       </c>
       <c r="Q20">
-        <v>27.64934328108027</v>
+        <v>0.3860340143353334</v>
       </c>
       <c r="R20">
-        <v>27.64934328108027</v>
+        <v>2.316204086012</v>
       </c>
       <c r="S20">
-        <v>0.02051049005042597</v>
+        <v>0.0002485841101246866</v>
       </c>
       <c r="T20">
-        <v>0.02051049005042597</v>
+        <v>0.000217151658109957</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="H21">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="I21">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="J21">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>89.2013053920292</v>
+        <v>94.77040833333335</v>
       </c>
       <c r="N21">
-        <v>89.2013053920292</v>
+        <v>284.311225</v>
       </c>
       <c r="O21">
-        <v>0.5986602477707194</v>
+        <v>0.6083190427686328</v>
       </c>
       <c r="P21">
-        <v>0.5986602477707194</v>
+        <v>0.6419542297705754</v>
       </c>
       <c r="Q21">
-        <v>235.4605169653313</v>
+        <v>3.492510678036112</v>
       </c>
       <c r="R21">
-        <v>235.4605169653313</v>
+        <v>31.432596102325</v>
       </c>
       <c r="S21">
-        <v>0.1746663760289101</v>
+        <v>0.002248979692878604</v>
       </c>
       <c r="T21">
-        <v>0.1746663760289101</v>
+        <v>0.002946908005016395</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="H22">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="I22">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="J22">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.1802121654039</v>
+        <v>16.538844</v>
       </c>
       <c r="N22">
-        <v>16.1802121654039</v>
+        <v>49.61653199999999</v>
       </c>
       <c r="O22">
-        <v>0.1085908976483327</v>
+        <v>0.1061607091022847</v>
       </c>
       <c r="P22">
-        <v>0.1085908976483327</v>
+        <v>0.1120305488604859</v>
       </c>
       <c r="Q22">
-        <v>42.71014986082457</v>
+        <v>0.6094949920359999</v>
       </c>
       <c r="R22">
-        <v>42.71014986082457</v>
+        <v>5.485454928323999</v>
       </c>
       <c r="S22">
-        <v>0.03168270923715113</v>
+        <v>0.0003924803633731359</v>
       </c>
       <c r="T22">
-        <v>0.03168270923715113</v>
+        <v>0.0005142792210611877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="H23">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="I23">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="J23">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.9149383565421</v>
+        <v>11.41751</v>
       </c>
       <c r="N23">
-        <v>10.9149383565421</v>
+        <v>34.25253</v>
       </c>
       <c r="O23">
-        <v>0.07325385735345431</v>
+        <v>0.07328752588647836</v>
       </c>
       <c r="P23">
-        <v>0.07325385735345431</v>
+        <v>0.07733974103148239</v>
       </c>
       <c r="Q23">
-        <v>28.81165266339005</v>
+        <v>0.4207618843566667</v>
       </c>
       <c r="R23">
-        <v>28.81165266339005</v>
+        <v>3.78685695921</v>
       </c>
       <c r="S23">
-        <v>0.02137269986058426</v>
+        <v>0.0002709468977164555</v>
       </c>
       <c r="T23">
-        <v>0.02137269986058426</v>
+        <v>0.0003550301429325001</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.63965326438341</v>
+        <v>0.03685233333333333</v>
       </c>
       <c r="H24">
-        <v>2.63965326438341</v>
+        <v>0.110557</v>
       </c>
       <c r="I24">
-        <v>0.2917621082731477</v>
+        <v>0.003697039768215801</v>
       </c>
       <c r="J24">
-        <v>0.2917621082731477</v>
+        <v>0.004590526658060303</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.26167458843611</v>
+        <v>8.575923000000001</v>
       </c>
       <c r="N24">
-        <v>8.26167458843611</v>
+        <v>25.727769</v>
       </c>
       <c r="O24">
-        <v>0.05544690332027555</v>
+        <v>0.0550477449866867</v>
       </c>
       <c r="P24">
-        <v>0.05544690332027555</v>
+        <v>0.05809144585167288</v>
       </c>
       <c r="Q24">
-        <v>21.80795629663884</v>
+        <v>0.3160427730370001</v>
       </c>
       <c r="R24">
-        <v>21.80795629663884</v>
+        <v>2.844384957333</v>
       </c>
       <c r="S24">
-        <v>0.01617730540994099</v>
+        <v>0.0002035137023663827</v>
       </c>
       <c r="T24">
-        <v>0.01617730540994099</v>
+        <v>0.000266670330787371</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.03685233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.110557</v>
+      </c>
+      <c r="I25">
+        <v>0.003697039768215801</v>
+      </c>
+      <c r="J25">
+        <v>0.004590526658060303</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.012789</v>
+      </c>
+      <c r="N25">
+        <v>28.025578</v>
+      </c>
+      <c r="O25">
+        <v>0.08994628746366408</v>
+      </c>
+      <c r="P25">
+        <v>0.06327973276069274</v>
+      </c>
+      <c r="Q25">
+        <v>0.5164039711576668</v>
+      </c>
+      <c r="R25">
+        <v>3.098423826946</v>
+      </c>
+      <c r="S25">
+        <v>0.0003325350017565365</v>
+      </c>
+      <c r="T25">
+        <v>0.0002904873001528919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.055205</v>
+      </c>
+      <c r="H26">
+        <v>6.165615</v>
+      </c>
+      <c r="I26">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="J26">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.475158</v>
+      </c>
+      <c r="N26">
+        <v>20.950316</v>
+      </c>
+      <c r="O26">
+        <v>0.06723868979225338</v>
+      </c>
+      <c r="P26">
+        <v>0.04730430172509074</v>
+      </c>
+      <c r="Q26">
+        <v>21.52859709739</v>
+      </c>
+      <c r="R26">
+        <v>129.17158258434</v>
+      </c>
+      <c r="S26">
+        <v>0.01386320104693886</v>
+      </c>
+      <c r="T26">
+        <v>0.01211025552898163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.055205</v>
+      </c>
+      <c r="H27">
+        <v>6.165615</v>
+      </c>
+      <c r="I27">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="J27">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>94.77040833333335</v>
+      </c>
+      <c r="N27">
+        <v>284.311225</v>
+      </c>
+      <c r="O27">
+        <v>0.6083190427686328</v>
+      </c>
+      <c r="P27">
+        <v>0.6419542297705754</v>
+      </c>
+      <c r="Q27">
+        <v>194.7726170587084</v>
+      </c>
+      <c r="R27">
+        <v>1752.953553528375</v>
+      </c>
+      <c r="S27">
+        <v>0.1254225687121369</v>
+      </c>
+      <c r="T27">
+        <v>0.1643450907617714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.055205</v>
+      </c>
+      <c r="H28">
+        <v>6.165615</v>
+      </c>
+      <c r="I28">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="J28">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.538844</v>
+      </c>
+      <c r="N28">
+        <v>49.61653199999999</v>
+      </c>
+      <c r="O28">
+        <v>0.1061607091022847</v>
+      </c>
+      <c r="P28">
+        <v>0.1120305488604859</v>
+      </c>
+      <c r="Q28">
+        <v>33.99071488302</v>
+      </c>
+      <c r="R28">
+        <v>305.9164339471799</v>
+      </c>
+      <c r="S28">
+        <v>0.0218881013017616</v>
+      </c>
+      <c r="T28">
+        <v>0.02868065956532083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.055205</v>
+      </c>
+      <c r="H29">
+        <v>6.165615</v>
+      </c>
+      <c r="I29">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="J29">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.41751</v>
+      </c>
+      <c r="N29">
+        <v>34.25253</v>
+      </c>
+      <c r="O29">
+        <v>0.07328752588647836</v>
+      </c>
+      <c r="P29">
+        <v>0.07733974103148239</v>
+      </c>
+      <c r="Q29">
+        <v>23.46532363955</v>
+      </c>
+      <c r="R29">
+        <v>211.18791275595</v>
+      </c>
+      <c r="S29">
+        <v>0.01511034359438157</v>
+      </c>
+      <c r="T29">
+        <v>0.01979955294297753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.055205</v>
+      </c>
+      <c r="H30">
+        <v>6.165615</v>
+      </c>
+      <c r="I30">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="J30">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.575923000000001</v>
+      </c>
+      <c r="N30">
+        <v>25.727769</v>
+      </c>
+      <c r="O30">
+        <v>0.0550477449866867</v>
+      </c>
+      <c r="P30">
+        <v>0.05809144585167288</v>
+      </c>
+      <c r="Q30">
+        <v>17.625279829215</v>
+      </c>
+      <c r="R30">
+        <v>158.627518462935</v>
+      </c>
+      <c r="S30">
+        <v>0.01134968510375376</v>
+      </c>
+      <c r="T30">
+        <v>0.01487184521611093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.055205</v>
+      </c>
+      <c r="H31">
+        <v>6.165615</v>
+      </c>
+      <c r="I31">
+        <v>0.206178928973361</v>
+      </c>
+      <c r="J31">
+        <v>0.2560074895378535</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.012789</v>
+      </c>
+      <c r="N31">
+        <v>28.025578</v>
+      </c>
+      <c r="O31">
+        <v>0.08994628746366408</v>
+      </c>
+      <c r="P31">
+        <v>0.06327973276069274</v>
+      </c>
+      <c r="Q31">
+        <v>28.799154016745</v>
+      </c>
+      <c r="R31">
+        <v>172.79492410047</v>
+      </c>
+      <c r="S31">
+        <v>0.0185450292143883</v>
+      </c>
+      <c r="T31">
+        <v>0.01620008552269121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.2514585</v>
+      </c>
+      <c r="H32">
+        <v>6.502917</v>
+      </c>
+      <c r="I32">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="J32">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.475158</v>
+      </c>
+      <c r="N32">
+        <v>20.950316</v>
+      </c>
+      <c r="O32">
+        <v>0.06723868979225338</v>
+      </c>
+      <c r="P32">
+        <v>0.04730430172509074</v>
+      </c>
+      <c r="Q32">
+        <v>34.059541517943</v>
+      </c>
+      <c r="R32">
+        <v>136.238166071772</v>
+      </c>
+      <c r="S32">
+        <v>0.02193242176876675</v>
+      </c>
+      <c r="T32">
+        <v>0.01277277068934059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.2514585</v>
+      </c>
+      <c r="H33">
+        <v>6.502917</v>
+      </c>
+      <c r="I33">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="J33">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>94.77040833333335</v>
+      </c>
+      <c r="N33">
+        <v>284.311225</v>
+      </c>
+      <c r="O33">
+        <v>0.6083190427686328</v>
+      </c>
+      <c r="P33">
+        <v>0.6419542297705754</v>
+      </c>
+      <c r="Q33">
+        <v>308.1420497238876</v>
+      </c>
+      <c r="R33">
+        <v>1848.852298343325</v>
+      </c>
+      <c r="S33">
+        <v>0.1984260826199389</v>
+      </c>
+      <c r="T33">
+        <v>0.1733359096507431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.2514585</v>
+      </c>
+      <c r="H34">
+        <v>6.502917</v>
+      </c>
+      <c r="I34">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="J34">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>16.538844</v>
+      </c>
+      <c r="N34">
+        <v>49.61653199999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1061607091022847</v>
+      </c>
+      <c r="P34">
+        <v>0.1120305488604859</v>
+      </c>
+      <c r="Q34">
+        <v>53.77536490397399</v>
+      </c>
+      <c r="R34">
+        <v>322.6521894238439</v>
+      </c>
+      <c r="S34">
+        <v>0.03462829889304173</v>
+      </c>
+      <c r="T34">
+        <v>0.0302496910135546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.63965326438341</v>
-      </c>
-      <c r="H25">
-        <v>2.63965326438341</v>
-      </c>
-      <c r="I25">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="J25">
-        <v>0.2917621082731477</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>13.9688085986913</v>
-      </c>
-      <c r="N25">
-        <v>13.9688085986913</v>
-      </c>
-      <c r="O25">
-        <v>0.09374941745529149</v>
-      </c>
-      <c r="P25">
-        <v>0.09374941745529149</v>
-      </c>
-      <c r="Q25">
-        <v>36.87281121708254</v>
-      </c>
-      <c r="R25">
-        <v>36.87281121708254</v>
-      </c>
-      <c r="S25">
-        <v>0.02735252768613528</v>
-      </c>
-      <c r="T25">
-        <v>0.02735252768613528</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.2514585</v>
+      </c>
+      <c r="H35">
+        <v>6.502917</v>
+      </c>
+      <c r="I35">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="J35">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>11.41751</v>
+      </c>
+      <c r="N35">
+        <v>34.25253</v>
+      </c>
+      <c r="O35">
+        <v>0.07328752588647836</v>
+      </c>
+      <c r="P35">
+        <v>0.07733974103148239</v>
+      </c>
+      <c r="Q35">
+        <v>37.123559938335</v>
+      </c>
+      <c r="R35">
+        <v>222.74135963001</v>
+      </c>
+      <c r="S35">
+        <v>0.02390547663998118</v>
+      </c>
+      <c r="T35">
+        <v>0.02088272612306941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.2514585</v>
+      </c>
+      <c r="H36">
+        <v>6.502917</v>
+      </c>
+      <c r="I36">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="J36">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>8.575923000000001</v>
+      </c>
+      <c r="N36">
+        <v>25.727769</v>
+      </c>
+      <c r="O36">
+        <v>0.0550477449866867</v>
+      </c>
+      <c r="P36">
+        <v>0.05809144585167288</v>
+      </c>
+      <c r="Q36">
+        <v>27.88425773369551</v>
+      </c>
+      <c r="R36">
+        <v>167.305546402173</v>
+      </c>
+      <c r="S36">
+        <v>0.01795588766226414</v>
+      </c>
+      <c r="T36">
+        <v>0.01568543852920048</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.2514585</v>
+      </c>
+      <c r="H37">
+        <v>6.502917</v>
+      </c>
+      <c r="I37">
+        <v>0.3261875244227855</v>
+      </c>
+      <c r="J37">
+        <v>0.2700128788195549</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>14.012789</v>
+      </c>
+      <c r="N37">
+        <v>28.025578</v>
+      </c>
+      <c r="O37">
+        <v>0.08994628746366408</v>
+      </c>
+      <c r="P37">
+        <v>0.06327973276069274</v>
+      </c>
+      <c r="Q37">
+        <v>45.56200190275651</v>
+      </c>
+      <c r="R37">
+        <v>182.248007611026</v>
+      </c>
+      <c r="S37">
+        <v>0.02933935683879281</v>
+      </c>
+      <c r="T37">
+        <v>0.01708634281364674</v>
       </c>
     </row>
   </sheetData>
